--- a/OutputData/Nipah/Nipah_Combined_12_11.xlsx
+++ b/OutputData/Nipah/Nipah_Combined_12_11.xlsx
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pmid</t>
+          <t>PMID</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/OutputData/Nipah/Nipah_Combined_12_11.xlsx
+++ b/OutputData/Nipah/Nipah_Combined_12_11.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>L (14)</t>
+          <t>NA (14)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -600,22 +600,22 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>60 (14)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0 (14)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>60 (14)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>95%-100% (14)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>F (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1464 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1464 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>F (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -778,22 +778,22 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1464 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1464 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -866,27 +866,27 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -960,22 +960,22 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1049,22 +1049,22 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1138,22 +1138,22 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1226,27 +1226,27 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1315,27 +1315,27 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1404,27 +1404,27 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>N, P, V, W, C, M, F, G, L (1), N, P/V/C, P/V/C, P/V/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>N (7)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2014 (7)</t>
+          <t>2014.0 (7)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>N (7)</t>
+          <t>NUCLEOCAPSID (7)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>318 (3), 364 (2), 297 (1), 354 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>106 (3), 120 (2), 98 (1), 117 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>318 (3), 364 (2), 297 (1), 354 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>90%-95% (3), 95%-100% (4)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2014 (2)</t>
+          <t>2014.0 (2)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1586,27 +1586,27 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>N (2)</t>
+          <t>NUCLEOCAPSID (2)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>364 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>120 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>364 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>N (5)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2014 (5)</t>
+          <t>2014.0 (5)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>N (5)</t>
+          <t>NUCLEOCAPSID (5)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>318 (3), 297 (1), 354 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>106 (3), 98 (1), 117 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>318 (3), 297 (1), 354 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>90%-95% (3), 95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>G (1), F (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1809 (1), 1641 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1809 (1), 1641 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1857,27 +1857,27 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P, V, W, C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1951,22 +1951,22 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>18246 (4)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0 (4)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>18243 (2), 18231 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>75%-90% (4)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>P (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2040,22 +2040,22 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>501 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>501 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2124,27 +2124,27 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P, V, W, C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>N (6)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2017 (4), 2016 (2)</t>
+          <t>2017.0 (4), 2016.0 (2)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2213,27 +2213,27 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>nucleo (6)</t>
+          <t>NUCLEOPROTEIN (6)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>181 (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>59 (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>168 (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>90%-95% (6)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1998 (1)</t>
+          <t>1998.0 (1)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2302,27 +2302,27 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P/V/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>18131 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>18131 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>P (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1368 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1368 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2558,42 +2558,42 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>NA (3)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2007.0 (3)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>urine (3)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>N (3)</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2007 (3)</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>urine (3)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>N (3)</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>181 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>59 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>181 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>95%-100% (3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2017 (1)</t>
+          <t>2017.0 (1)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2662,27 +2662,27 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>18236 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>18250 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>90%-95% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2756,22 +2756,22 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>12 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0%-25% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2019 (1)</t>
+          <t>2019.0 (1)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2840,27 +2840,27 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P, V, W, C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>18124 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>6732 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2914,12 +2914,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>N (8), L (5), genome (3), F (2), P (1)</t>
+          <t>NA (15), genome (3), Partial L gene (1)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023 (19)</t>
+          <t>2023.0 (19)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2929,27 +2929,27 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>N (8), L (7), F (2), phospho (1), large L (1)</t>
+          <t>N (8), L (5), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (3), F (2), P (1)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>100-500 (15), 500-1000 (1), &gt;10000 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30-100 (7), 100-500 (9), 1000-3000 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>100-500 (15), 500-1000 (1), 5000-10000 (2), &gt;10000 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>90%-95% (18), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2018 (2)</t>
+          <t>2018.0 (2)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3016,27 +3016,27 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>L Protein (2)</t>
+          <t>N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (2)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>18233 (1), 18211 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>13842 (1), 8667 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>90%-95% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3111,27 +3111,27 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>L (3)</t>
+          <t>N, P, M, F, G, L (3)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>18246 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2244 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>18246 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>95%-100% (3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3202,27 +3202,27 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2013 (11)</t>
+          <t>2013.0 (11)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3297,27 +3297,27 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>L (10), glyco (1)</t>
+          <t>NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN, POLYMERASE (9), NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN (1), NUCLEOPROTEIN, MATRIX, FUSION, GLYCOPROTEIN, POLYMERASE (1)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>18234 (10), 18227 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2244 (10), 602 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>18240 (10), 9431 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>90%-95% (11)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>N (3), genome (1)</t>
+          <t>NA (3), genome (1)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2007 (4)</t>
+          <t>2007.0 (4)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3392,27 +3392,27 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>N (3), L (1)</t>
+          <t>N (3), N, P/V/W/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>159 (3), 18252 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>52 (3), 2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>157 (3), 18260 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>90%-95% (1), 95%-100% (3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>L (1), G (1), F (1), M (1), genome (1), N (1)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2018 (6)</t>
+          <t>2018.0 (6)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3487,27 +3487,27 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>glyco (2), F (1), M (1), C (1), N (1)</t>
+          <t>L (1), G (1), F (1), M (1), P/V/W/C, P/V/W/C (1), N (1)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>500-1000 (1), 1000-3000 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>517 (2), 409 (1), 172 (1), 348 (1), 114 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>500-1000 (1), 1000-3000 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>90%-95% (5), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3583,22 +3583,22 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>N (23), genome (3)</t>
+          <t>NA (26)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2015 (22), 2014 (3), 2013 (1)</t>
+          <t>2015.0 (22), 2014.0 (3), 2013.0 (1)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3669,27 +3669,27 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>N (23), phospho (3)</t>
+          <t>N (23), N, P (3)</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>100-500 (5), 500-1000 (1), 1000-3000 (20)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>30-100 (5), 100-500 (21)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>100-500 (5), 500-1000 (1), 1000-3000 (20)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>90%-95% (21), 95%-100% (5)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3765,22 +3765,22 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>18142 (1), 18769 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>18119 (1), 17961 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>G (5)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3856,22 +3856,22 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1809 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1809 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>95%-100% (5)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3946,27 +3946,27 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>RNA L (2)</t>
+          <t>N, P, P, P, M, F, G, L (2)</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4022,12 +4022,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2008 (1)</t>
+          <t>2008.0 (1)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4037,27 +4037,27 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>14973 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6741 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>genome (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4132,27 +4132,27 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>glyco (1)</t>
+          <t>N, P/V/C, P/V/C, P/V/C, M, F, G (1)</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>11200 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>602 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>11200 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4208,42 +4208,42 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>NA (3)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2013.0 (3)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>NA (3)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>N (3)</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2013 (3)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>NA (3)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>N (3)</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>227 (2), 1599 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>75 (2), 532 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>227 (2), 1599 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>90%-95% (2), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>G (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4319,22 +4319,22 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1809 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>1809 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>N (19)</t>
+          <t>NA (19)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4409,27 +4409,27 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>N (19)</t>
+          <t>NUCLEOCAPSID (19)</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>224 (19)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>74 (19)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>224 (13), 222 (4), 229 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>75%-90% (2), 90%-95% (13), 95%-100% (4)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2003 (1)</t>
+          <t>2003.0 (1)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4504,27 +4504,27 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>NUCLEOPROTEIN, PHOSPHOPROTEIN, MATRIX, FUSION, ATTACHMENT, POLYMERASE (1)</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>18246 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2004 (1)</t>
+          <t>2004.0 (1)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4599,27 +4599,27 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>18252 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>18259 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>90%-95% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>genome (1), F (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4694,27 +4694,27 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>glyco (1), F (1)</t>
+          <t>GLYCOPROTEIN (1), FUSION (1)</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2546 (1), 2337 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>602 (1), 546 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2546 (1), 2337 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1999 (2)</t>
+          <t>1999.0 (2)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4781,27 +4781,27 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>N, P, V, W, C, M, F, G, L (2)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>18214 (1), 18212 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2244 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>18214 (1), 18212 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>genome (2), P (1), L (1)</t>
+          <t>NA (2), genome (2)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2019 (2), 2018 (2)</t>
+          <t>2019.0 (2), 2018.0 (2)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4877,22 +4877,22 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>255 (1), 17952 (1), 481 (1), 18017 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0 (4)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>255 (1), 17960 (1), 481 (1), 7763 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>90%-95% (4)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>N (5), genome (3)</t>
+          <t>NA (5), genome (3)</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2010 (3), 2004 (3), 2008 (2)</t>
+          <t>2010.0 (3), 2004.0 (3), 2008.0 (2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4967,27 +4967,27 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>N (5), L (3)</t>
+          <t>N (5), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (3)</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>1599 (5), 18252 (2), 18167 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>532 (5), 2244 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>1599 (5), 18260 (2), 18173 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>90%-95% (8)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>N (30)</t>
+          <t>NA (30)</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2012 (9), 2013 (7), 2015 (5), 2014 (5), 2018 (2), 2017 (2)</t>
+          <t>2012.0 (9), 2013.0 (7), 2015.0 (5), 2014.0 (5), 2018.0 (2), 2017.0 (2)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5062,27 +5062,27 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>N (30)</t>
+          <t>NUCLEOCAPSID (30)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1000-3000 (30)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>100-500 (17), 500-1000 (13)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>1000-3000 (30)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>90%-95% (27), 95%-100% (3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023 (11), 2020 (5), 2022 (3), 2017 (2), 2012 (1), 2019 (1), 2018 (1)</t>
+          <t>2023.0 (11), 2020.0 (5), 2022.0 (3), 2017.0 (2), 2012.0 (1), 2019.0 (1), 2018.0 (1)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -5153,27 +5153,27 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>L (24)</t>
+          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (21), N, P/V/W/C, M, F, G, L (3)</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>&gt;10000 (24)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2244 (21), 2209 (1), 2015 (1), 2206 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>3000-5000 (1), 5000-10000 (4), &gt;10000 (19)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>90%-95% (24)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>G (1), N (1)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5248,27 +5248,27 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>glyco (1), nucleo (1)</t>
+          <t>GLYCOPROTEIN (1), NUCLEOPROTEIN (1)</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1809 (1), 1599 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>602 (1), 532 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>1809 (1), 1599 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5324,42 +5324,42 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>NA (5)</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2009.0 (5)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>urine (3), oropharyngeal swab (1), NA (1)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
           <t>M (5)</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2009 (5)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>urine (3), oropharyngeal swab (1), NA (1)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>M (5)</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>251 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>83 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>251 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>95%-100% (5)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5415,42 +5415,42 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>NA (3)</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2008.0 (3)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>urine (3)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
           <t>L (1), P (1), G (1)</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2008 (3)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>urine (3)</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>L (1), phospho (1), glyco (1)</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>6735 (1), 2130 (1), 1809 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2244 (1), 709 (1), 602 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6735 (1), 2130 (1), 1809 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>95%-100% (3)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5506,42 +5506,42 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>NA (39)</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NA (36), 2007.0 (3)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>urine (39)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>N (39)</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>NA (36), 2007 (3)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>urine (39)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>N (39)</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>357 (36), 181 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>118 (36), 59 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>357 (36), 181 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>90%-95% (29), 95%-100% (10)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>N (21), genome (1)</t>
+          <t>NA (21), genome (1)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2017 (5), 2018 (5), 2020 (3), 2012 (3), 2019 (2), 2016 (2), 2009 (2)</t>
+          <t>2017.0 (5), 2018.0 (5), 2020.0 (3), 2012.0 (3), 2019.0 (2), 2016.0 (2), 2009.0 (2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5616,27 +5616,27 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>N (21), L (1)</t>
+          <t>NUCLEOCAPSID (21), N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>357 (21), 18236 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>118 (21), 2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>357 (21), 18250 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>90%-95% (22)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5696,42 +5696,42 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>NA (9)</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NA (9)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>urine (9)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>N (9)</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>NA (9)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>urine (9)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>N (9)</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>357 (9)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>118 (9)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>357 (9)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>90%-95% (8), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>N (11)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2010 (6), 2011 (5)</t>
+          <t>2010.0 (6), 2011.0 (5)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5806,27 +5806,27 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>N (11)</t>
+          <t>NUCLEOCAPSID (11)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1599 (10), 357 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>532 (10), 118 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>1599 (10), 357 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>90%-95% (6), 95%-100% (5)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5882,42 +5882,42 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>NA (8)</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NA (8)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>NA (8)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
           <t>N (8)</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>NA (8)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NA (8)</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>N (8)</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>118 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>90%-95% (7), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5973,42 +5973,42 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>NA (8)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2008.0 (6), 2004.0 (2)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>urine (8)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>N (8)</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2008 (6), 2004 (2)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>urine (8)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>N (8)</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>118 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>90%-95% (8)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2011 (9), 1999 (6), 2015 (5), 2014 (4), 2012 (4), 2004 (4), 2013 (1), 2008 (1)</t>
+          <t>2011.0 (9), 1999.0 (6), 2015.0 (5), 2014.0 (4), 2012.0 (4), 2004.0 (4), 2013.0 (1), 2008.0 (1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6079,27 +6079,27 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>L (34)</t>
+          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (34)</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>&gt;10000 (34)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2244 (34)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>5000-10000 (2), &gt;10000 (32)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>90%-95% (28), 95%-100% (6)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6155,12 +6155,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>genome (8), N (6), L (3), P (2), F (1)</t>
+          <t>NA (14), genome (6)</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2018 (20)</t>
+          <t>2018.0 (20)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6170,27 +6170,27 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>N (6), L Protein (5), phospho (4), L (4), F (1)</t>
+          <t>N (6), N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (6), P/V/M/C (4), L (3), F (1)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>100-500 (12), 500-1000 (1), 1000-3000 (1), &gt;10000 (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30-100 (2), 100-500 (12), 1000-3000 (6)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>100-500 (12), 500-1000 (1), 1000-3000 (1), 5000-10000 (3), &gt;10000 (3)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>75%-90% (4), 90%-95% (15), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6246,42 +6246,42 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>NA (2)</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2018.0 (2)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>throat swab (1), urine (1)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>N (2)</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2018 (2)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>throat swab (1), urine (1)</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>N (2)</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1491 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>497 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1491 (2)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6333,12 +6333,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>genome (18), N (5), L (3), P (2), F (1)</t>
+          <t>genome (16), NA (13)</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2018 (19), 2019 (10)</t>
+          <t>2018.0 (19), 2019.0 (10)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6348,27 +6348,27 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>L (14), N (5), L Protein (5), phospho (4), F (1)</t>
+          <t>N, P/V/C, P/V/C, P/V/C, P/V/C, M, F, G, L (10), N, P/V/M/C, P/V/M/C, P/V/M/C, P/V/M/C, M, F, G, L (6), N (5), P/V/M/C (4), L (3), F (1)</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>100-500 (12), 500-1000 (1), &gt;10000 (16)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>30-100 (2), 100-500 (11), 1000-3000 (16)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>100-500 (12), 500-1000 (1), 5000-10000 (11), &gt;10000 (5)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>75%-90% (7), 90%-95% (20), 95%-100% (2)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2021 (1)</t>
+          <t>2021.0 (1)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6443,27 +6443,27 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>N, P/V/W/C, P/V/W/C, P/V/W/C, P/V/W/C, M, F, G, L (1)</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>18005 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2244 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6732 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>90%-95% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>F (1), genome (1), G (1), N (1)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2010 (4)</t>
+          <t>2010.0 (4)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6538,27 +6538,27 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>NA (1), phospho (1), glyco (1), N (1)</t>
+          <t>NA (1), P (1), G (1), N (1)</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>552 (1), 338 (1), 954 (1), 205 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0 (1), 52 (1), 318 (1), 68 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>545 (1), 336 (1), 954 (1), 204 (1)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>90%-95% (3), 95%-100% (1)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
